--- a/public/assets/trainings.xlsx
+++ b/public/assets/trainings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\EMEAREPORT\my-app\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0ED56-09FE-4C06-91B7-59FE42DB4898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCDDF94-E84F-46ED-8CB0-3521EA68529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1C707ED-ABBF-460A-9BE8-2196CE93EDD8}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>Canadá</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>2.0</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
 </sst>
 </file>
@@ -250,13 +250,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -596,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F174E56-3BC7-4246-A9D3-93BFF7A639E1}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -650,8 +649,8 @@
       <c r="G2" s="3">
         <v>2025</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>34</v>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -677,8 +676,8 @@
       <c r="G3" s="3">
         <v>2025</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>35</v>
+      <c r="H3" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -705,8 +704,8 @@
       <c r="G4" s="3">
         <v>2025</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>36</v>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -733,8 +732,8 @@
       <c r="G5" s="3">
         <v>2025</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>37</v>
+      <c r="H5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -760,8 +759,8 @@
       <c r="G6" s="3">
         <v>2025</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>38</v>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -769,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -788,8 +787,8 @@
       <c r="G7" s="3">
         <v>2025</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>39</v>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -797,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <f>4+3+1+1+13+2+4+22+3+2+2</f>
@@ -818,8 +817,8 @@
       <c r="G8" s="3">
         <v>2025</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>40</v>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -827,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -844,8 +843,8 @@
       <c r="G9" s="3">
         <v>2025</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>41</v>
+      <c r="H9" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -853,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <f>59+1+1</f>
@@ -872,8 +871,8 @@
       <c r="G10" s="3">
         <v>2025</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
+      <c r="H10" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -881,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -898,8 +897,8 @@
       <c r="G11" s="3">
         <v>2025</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>43</v>
+      <c r="H11" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -907,7 +906,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -925,8 +924,8 @@
       <c r="G12" s="3">
         <v>2025</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>44</v>
+      <c r="H12" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -934,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -951,8 +950,8 @@
       <c r="G13" s="3">
         <v>2025</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>34</v>
+      <c r="H13" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -960,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -977,8 +976,8 @@
       <c r="G14" s="3">
         <v>2025</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>34</v>
+      <c r="H14" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -986,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1003,8 +1002,8 @@
       <c r="G15" s="3">
         <v>2025</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>34</v>
+      <c r="H15" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1012,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -1030,8 +1029,8 @@
       <c r="G16" s="3">
         <v>2025</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>34</v>
+      <c r="H16" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1039,7 +1038,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1057,8 +1056,8 @@
       <c r="G17" s="3">
         <v>2025</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>45</v>
+      <c r="H17" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1066,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1083,8 +1082,8 @@
       <c r="G18" s="3">
         <v>2025</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>34</v>
+      <c r="H18" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1092,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1109,8 +1108,8 @@
       <c r="G19" s="3">
         <v>2025</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>34</v>
+      <c r="H19" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1118,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1135,8 +1134,8 @@
       <c r="G20" s="3">
         <v>2025</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>34</v>
+      <c r="H20" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1144,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1161,8 +1160,8 @@
       <c r="G21" s="3">
         <v>2025</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>46</v>
+      <c r="H21" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1170,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1187,8 +1186,8 @@
       <c r="G22" s="3">
         <v>2025</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>48</v>
+      <c r="H22" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1196,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1213,8 +1212,8 @@
       <c r="G23" s="3">
         <v>2025</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>34</v>
+      <c r="H23" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1222,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1239,8 +1238,8 @@
       <c r="G24" s="3">
         <v>2025</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>34</v>
+      <c r="H24" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1248,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4">
         <f>SUM(C2:C24)</f>
@@ -1269,8 +1268,8 @@
       <c r="G25" s="3">
         <v>2025</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>47</v>
+      <c r="H25" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1295,8 +1294,8 @@
       <c r="G26" s="3">
         <v>2024</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>34</v>
+      <c r="H26" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1322,8 +1321,8 @@
       <c r="G27" s="3">
         <v>2024</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>35</v>
+      <c r="H27" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1349,8 +1348,8 @@
       <c r="G28" s="3">
         <v>2024</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>36</v>
+      <c r="H28" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1376,8 +1375,8 @@
       <c r="G29" s="3">
         <v>2024</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>37</v>
+      <c r="H29" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1403,8 +1402,8 @@
       <c r="G30" s="3">
         <v>2024</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>38</v>
+      <c r="H30" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1412,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -1431,8 +1430,8 @@
       <c r="G31" s="3">
         <v>2024</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>39</v>
+      <c r="H31" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1440,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2">
         <f>4+3+1+1+13+2+4+22+3+2+2</f>
@@ -1459,8 +1458,8 @@
       <c r="G32" s="3">
         <v>2024</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>40</v>
+      <c r="H32" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1468,7 +1467,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -1485,8 +1484,8 @@
       <c r="G33" s="3">
         <v>2024</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>41</v>
+      <c r="H33" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1494,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
         <f>59+1+1</f>
@@ -1513,8 +1512,8 @@
       <c r="G34" s="3">
         <v>2024</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>42</v>
+      <c r="H34" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1522,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -1539,8 +1538,8 @@
       <c r="G35" s="3">
         <v>2024</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>43</v>
+      <c r="H35" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1548,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -1565,8 +1564,8 @@
       <c r="G36" s="3">
         <v>2024</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>44</v>
+      <c r="H36" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1574,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -1591,8 +1590,8 @@
       <c r="G37" s="3">
         <v>2024</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>34</v>
+      <c r="H37" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1600,7 +1599,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -1617,8 +1616,8 @@
       <c r="G38" s="3">
         <v>2024</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>34</v>
+      <c r="H38" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1626,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -1643,8 +1642,8 @@
       <c r="G39" s="3">
         <v>2024</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>34</v>
+      <c r="H39" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1652,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -1670,8 +1669,8 @@
       <c r="G40" s="3">
         <v>2024</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>34</v>
+      <c r="H40" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1679,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -1697,8 +1696,8 @@
       <c r="G41" s="3">
         <v>2024</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>45</v>
+      <c r="H41" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1706,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -1723,8 +1722,8 @@
       <c r="G42" s="3">
         <v>2024</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>34</v>
+      <c r="H42" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1732,7 +1731,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -1749,8 +1748,8 @@
       <c r="G43" s="3">
         <v>2024</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>34</v>
+      <c r="H43" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1758,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -1775,8 +1774,8 @@
       <c r="G44" s="3">
         <v>2024</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>34</v>
+      <c r="H44" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1784,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -1801,8 +1800,8 @@
       <c r="G45" s="3">
         <v>2024</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>46</v>
+      <c r="H45" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1810,7 +1809,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -1827,8 +1826,8 @@
       <c r="G46" s="3">
         <v>2024</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>49</v>
+      <c r="H46" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1836,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -1853,8 +1852,8 @@
       <c r="G47" s="3">
         <v>2024</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>34</v>
+      <c r="H47" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1862,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -1879,8 +1878,8 @@
       <c r="G48" s="3">
         <v>2024</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>34</v>
+      <c r="H48" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1888,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="4">
         <f>SUM(C26:C48)</f>
@@ -1909,13 +1908,13 @@
       <c r="G49" s="3">
         <v>2025</v>
       </c>
-      <c r="H49" s="7" t="s">
-        <v>47</v>
+      <c r="H49" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1935,13 +1934,13 @@
       <c r="G50" s="3">
         <v>2024</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>34</v>
+      <c r="H50" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -1961,13 +1960,13 @@
       <c r="G51" s="3">
         <v>2024</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>35</v>
+      <c r="H51" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
@@ -1988,13 +1987,13 @@
       <c r="G52" s="3">
         <v>2024</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>36</v>
+      <c r="H52" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2017,13 +2016,13 @@
       <c r="G53" s="3">
         <v>2024</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>37</v>
+      <c r="H53" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -2045,16 +2044,16 @@
       <c r="G54" s="3">
         <v>2024</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>38</v>
+      <c r="H54" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2071,16 +2070,16 @@
       <c r="G55" s="3">
         <v>2024</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>39</v>
+      <c r="H55" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56">
         <f>6+1+4+1+17+2+5+22+4+3+3+1</f>
@@ -2100,16 +2099,16 @@
       <c r="G56" s="3">
         <v>2024</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>40</v>
+      <c r="H56" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2127,16 +2126,16 @@
       <c r="G57" s="3">
         <v>2024</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>41</v>
+      <c r="H57" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58">
         <v>44</v>
@@ -2153,16 +2152,16 @@
       <c r="G58" s="3">
         <v>2024</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>42</v>
+      <c r="H58" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2179,16 +2178,16 @@
       <c r="G59" s="3">
         <v>2024</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>43</v>
+      <c r="H59" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2206,16 +2205,16 @@
       <c r="G60" s="3">
         <v>2024</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>44</v>
+      <c r="H60" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2232,16 +2231,16 @@
       <c r="G61" s="3">
         <v>2024</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>34</v>
+      <c r="H61" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2258,16 +2257,16 @@
       <c r="G62" s="3">
         <v>2024</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>34</v>
+      <c r="H62" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2284,16 +2283,16 @@
       <c r="G63" s="3">
         <v>2024</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>34</v>
+      <c r="H63" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2310,16 +2309,16 @@
       <c r="G64" s="3">
         <v>2024</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>34</v>
+      <c r="H64" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2336,16 +2335,16 @@
       <c r="G65" s="3">
         <v>2024</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>45</v>
+      <c r="H65" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2362,16 +2361,16 @@
       <c r="G66" s="3">
         <v>2024</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>34</v>
+      <c r="H66" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2388,16 +2387,16 @@
       <c r="G67" s="3">
         <v>2024</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>34</v>
+      <c r="H67" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2414,16 +2413,16 @@
       <c r="G68" s="3">
         <v>2024</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>34</v>
+      <c r="H68" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2440,16 +2439,16 @@
       <c r="G69" s="3">
         <v>2024</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>46</v>
+      <c r="H69" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2467,16 +2466,16 @@
       <c r="G70" s="3">
         <v>2024</v>
       </c>
-      <c r="H70" s="6" t="s">
-        <v>51</v>
+      <c r="H70" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2493,16 +2492,16 @@
       <c r="G71" s="3">
         <v>2024</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>34</v>
+      <c r="H71" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2519,16 +2518,16 @@
       <c r="G72" s="3">
         <v>2024</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>34</v>
+      <c r="H72" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="4">
         <f>SUM(C50:C72)</f>
@@ -2549,13 +2548,13 @@
       <c r="G73" s="3">
         <v>2024</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>47</v>
+      <c r="H73" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -2575,13 +2574,13 @@
       <c r="G74" s="3">
         <v>2025</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>34</v>
+      <c r="H74" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -2601,13 +2600,13 @@
       <c r="G75" s="3">
         <v>2025</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>35</v>
+      <c r="H75" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
@@ -2628,13 +2627,13 @@
       <c r="G76" s="3">
         <v>2025</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>36</v>
+      <c r="H76" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2657,13 +2656,13 @@
       <c r="G77" s="3">
         <v>2025</v>
       </c>
-      <c r="H77" s="6" t="s">
-        <v>37</v>
+      <c r="H77" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -2685,16 +2684,16 @@
       <c r="G78" s="3">
         <v>2025</v>
       </c>
-      <c r="H78" s="6" t="s">
-        <v>38</v>
+      <c r="H78" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2711,16 +2710,16 @@
       <c r="G79" s="3">
         <v>2025</v>
       </c>
-      <c r="H79" s="6" t="s">
-        <v>39</v>
+      <c r="H79" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80">
         <f>6+1+4+1+17+2+5+22+4+3+3+1</f>
@@ -2739,16 +2738,16 @@
       <c r="G80" s="3">
         <v>2025</v>
       </c>
-      <c r="H80" s="6" t="s">
-        <v>40</v>
+      <c r="H80" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2766,16 +2765,16 @@
       <c r="G81" s="3">
         <v>2025</v>
       </c>
-      <c r="H81" s="6" t="s">
-        <v>41</v>
+      <c r="H81" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82">
         <v>44</v>
@@ -2792,16 +2791,16 @@
       <c r="G82" s="3">
         <v>2025</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>42</v>
+      <c r="H82" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2818,16 +2817,16 @@
       <c r="G83" s="3">
         <v>2025</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>43</v>
+      <c r="H83" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2845,16 +2844,16 @@
       <c r="G84" s="3">
         <v>2025</v>
       </c>
-      <c r="H84" s="6" t="s">
-        <v>44</v>
+      <c r="H84" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2871,16 +2870,16 @@
       <c r="G85" s="3">
         <v>2025</v>
       </c>
-      <c r="H85" s="6" t="s">
-        <v>34</v>
+      <c r="H85" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2897,16 +2896,16 @@
       <c r="G86" s="3">
         <v>2025</v>
       </c>
-      <c r="H86" s="6" t="s">
-        <v>34</v>
+      <c r="H86" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2923,16 +2922,16 @@
       <c r="G87" s="3">
         <v>2025</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>34</v>
+      <c r="H87" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2949,16 +2948,16 @@
       <c r="G88" s="3">
         <v>2025</v>
       </c>
-      <c r="H88" s="6" t="s">
-        <v>34</v>
+      <c r="H88" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2976,16 +2975,16 @@
       <c r="G89" s="3">
         <v>2025</v>
       </c>
-      <c r="H89" s="6" t="s">
-        <v>45</v>
+      <c r="H89" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3002,16 +3001,16 @@
       <c r="G90" s="3">
         <v>2025</v>
       </c>
-      <c r="H90" s="6" t="s">
-        <v>34</v>
+      <c r="H90" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3028,16 +3027,16 @@
       <c r="G91" s="3">
         <v>2025</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>34</v>
+      <c r="H91" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3054,16 +3053,16 @@
       <c r="G92" s="3">
         <v>2025</v>
       </c>
-      <c r="H92" s="6" t="s">
-        <v>34</v>
+      <c r="H92" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3080,16 +3079,16 @@
       <c r="G93" s="3">
         <v>2025</v>
       </c>
-      <c r="H93" s="6" t="s">
-        <v>46</v>
+      <c r="H93" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3107,16 +3106,16 @@
       <c r="G94" s="3">
         <v>2025</v>
       </c>
-      <c r="H94" s="6" t="s">
-        <v>50</v>
+      <c r="H94" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3133,16 +3132,16 @@
       <c r="G95" s="3">
         <v>2025</v>
       </c>
-      <c r="H95" s="6" t="s">
-        <v>34</v>
+      <c r="H95" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3159,16 +3158,16 @@
       <c r="G96" s="3">
         <v>2025</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>34</v>
+      <c r="H96" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97" s="4">
         <f>SUM(C74:C96)</f>
@@ -3189,8 +3188,8 @@
       <c r="G97" s="3">
         <v>2025</v>
       </c>
-      <c r="H97" s="7" t="s">
-        <v>47</v>
+      <c r="H97" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
